--- a/data/trans_orig/Q5410-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Q5410-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{17966581-23B0-4B34-959C-0E0321DCBA5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{14029A4E-18CE-4DC4-8BB9-786CB59B6B1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C85C76E6-EE56-4FE3-B0C0-F50EB92FE7C0}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E21C6B76-7D04-4050-964B-199B409D44D1}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="304">
   <si>
     <t>Población según si se le escapa la caca (incontinencia) en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
@@ -80,7 +80,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>1,13%</t>
+    <t>1,44%</t>
   </si>
   <si>
     <t>0,95%</t>
@@ -89,904 +89,868 @@
     <t>0,35%</t>
   </si>
   <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>Pocas veces</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>96,04%</t>
+  </si>
+  <si>
+    <t>94,32%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>95,01%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>90,56%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
+  </si>
+  <si>
+    <t>96,12%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si se le escapa la caca (incontinencia) en 2012 (Tasa respuesta: 18,41%)</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>94,83%</t>
+  </si>
+  <si>
+    <t>92,07%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>94,41%</t>
+  </si>
+  <si>
+    <t>92,17%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>93,05%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>92,77%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>88,62%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>93,94%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
+  </si>
+  <si>
+    <t>90,01%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>93,39%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>94,89%</t>
+  </si>
+  <si>
+    <t>92,98%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>Población según si se le escapa la caca (incontinencia) en 2015 (Tasa respuesta: 19,52%)</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>93,21%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>96,19%</t>
+  </si>
+  <si>
+    <t>93,86%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>80,43%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>87,79%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
     <t>2,12%</t>
   </si>
   <si>
-    <t>0,67%</t>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>97,0%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>95,35%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>Población según si se le escapa la caca (incontinencia) en 2023 (Tasa respuesta: 31,25%)</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
+  </si>
+  <si>
+    <t>90,45%</t>
+  </si>
+  <si>
+    <t>94,29%</t>
+  </si>
+  <si>
+    <t>94,37%</t>
+  </si>
+  <si>
+    <t>92,86%</t>
+  </si>
+  <si>
+    <t>95,64%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
   </si>
   <si>
     <t>1,42%</t>
   </si>
   <si>
-    <t>Pocas veces</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
-  </si>
-  <si>
-    <t>95,32%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>95,27%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>90,44%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>97,02%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>94,54%</t>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>94,6%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>96,03%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
   </si>
   <si>
     <t>97,71%</t>
   </si>
   <si>
-    <t>97,25%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si se le escapa la caca (incontinencia) en 2012 (Tasa respuesta: 18,41%)</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>94,83%</t>
-  </si>
-  <si>
-    <t>91,92%</t>
-  </si>
-  <si>
-    <t>94,41%</t>
-  </si>
-  <si>
-    <t>92,45%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>92,85%</t>
-  </si>
-  <si>
-    <t>95,88%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>92,96%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>89,02%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>93,87%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>90,01%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>93,39%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>94,89%</t>
-  </si>
-  <si>
-    <t>93,1%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>93,81%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>Población según si se le escapa la caca (incontinencia) en 2015 (Tasa respuesta: 19,52%)</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>95,52%</t>
-  </si>
-  <si>
-    <t>93,11%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>96,19%</t>
-  </si>
-  <si>
-    <t>93,74%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>94,35%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
+    <t>96,61%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>93,63%</t>
   </si>
   <si>
     <t>96,68%</t>
   </si>
   <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>79,61%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>88,76%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>97,0%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>Población según si se le escapa la caca (incontinencia) en 2023 (Tasa respuesta: 31,25%)</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
-  </si>
-  <si>
-    <t>90,51%</t>
-  </si>
-  <si>
-    <t>94,44%</t>
-  </si>
-  <si>
-    <t>94,37%</t>
-  </si>
-  <si>
-    <t>92,56%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>96,03%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>95,01%</t>
-  </si>
-  <si>
-    <t>93,52%</t>
-  </si>
-  <si>
-    <t>96,71%</t>
-  </si>
-  <si>
     <t>96,1%</t>
   </si>
   <si>
-    <t>95,17%</t>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
   </si>
 </sst>
 </file>
@@ -1398,7 +1362,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66BCDC1B-7DE2-400C-B128-AEC8CA841C7B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68625BC0-7B39-4036-A29B-7A71D7C7BCF8}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1555,16 +1519,16 @@
         <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
         <v>7</v>
@@ -1573,13 +1537,13 @@
         <v>6294</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
         <v>16</v>
@@ -1588,13 +1552,13 @@
         <v>17685</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
         <v>23</v>
@@ -1603,19 +1567,19 @@
         <v>23979</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
         <v>391</v>
@@ -1624,28 +1588,28 @@
         <v>366057</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H6" s="7">
         <v>553</v>
       </c>
       <c r="I6" s="7">
-        <v>564452</v>
+        <v>564451</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M6" s="7">
         <v>944</v>
@@ -1654,13 +1618,13 @@
         <v>930508</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1675,28 +1639,28 @@
         <v>373189</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H7" s="7">
         <v>574</v>
       </c>
       <c r="I7" s="7">
-        <v>587750</v>
+        <v>587749</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M7" s="7">
         <v>973</v>
@@ -1705,18 +1669,18 @@
         <v>960938</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -1731,10 +1695,10 @@
         <v>12</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -1743,13 +1707,13 @@
         <v>1141</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -1758,19 +1722,19 @@
         <v>1141</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C9" s="7">
         <v>1</v>
@@ -1779,13 +1743,13 @@
         <v>810</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -1797,10 +1761,10 @@
         <v>12</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M9" s="7">
         <v>1</v>
@@ -1809,19 +1773,19 @@
         <v>810</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P9" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C10" s="7">
         <v>88</v>
@@ -1830,13 +1794,13 @@
         <v>87273</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H10" s="7">
         <v>59</v>
@@ -1845,13 +1809,13 @@
         <v>61071</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>54</v>
       </c>
       <c r="M10" s="7">
         <v>147</v>
@@ -1860,13 +1824,13 @@
         <v>148344</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1881,13 +1845,13 @@
         <v>88083</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H11" s="7">
         <v>60</v>
@@ -1896,13 +1860,13 @@
         <v>62212</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M11" s="7">
         <v>149</v>
@@ -1911,18 +1875,18 @@
         <v>150295</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -1937,10 +1901,10 @@
         <v>12</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -1952,10 +1916,10 @@
         <v>12</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -1967,16 +1931,16 @@
         <v>12</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C13" s="7">
         <v>0</v>
@@ -1988,10 +1952,10 @@
         <v>12</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -2003,10 +1967,10 @@
         <v>12</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -2018,16 +1982,16 @@
         <v>12</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C14" s="7">
         <v>35</v>
@@ -2036,13 +2000,13 @@
         <v>41194</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H14" s="7">
         <v>27</v>
@@ -2051,13 +2015,13 @@
         <v>26881</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M14" s="7">
         <v>62</v>
@@ -2066,13 +2030,13 @@
         <v>68075</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2087,13 +2051,13 @@
         <v>41194</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H15" s="7">
         <v>27</v>
@@ -2102,13 +2066,13 @@
         <v>26881</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M15" s="7">
         <v>62</v>
@@ -2117,13 +2081,13 @@
         <v>68075</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2140,13 +2104,13 @@
         <v>838</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="H16" s="7">
         <v>6</v>
@@ -2158,10 +2122,10 @@
         <v>68</v>
       </c>
       <c r="K16" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="M16" s="7">
         <v>7</v>
@@ -2170,19 +2134,19 @@
         <v>7592</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
         <v>8</v>
@@ -2191,13 +2155,13 @@
         <v>7104</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="H17" s="7">
         <v>16</v>
@@ -2206,13 +2170,13 @@
         <v>17685</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="M17" s="7">
         <v>24</v>
@@ -2221,19 +2185,19 @@
         <v>24788</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C18" s="7">
         <v>514</v>
@@ -2242,13 +2206,13 @@
         <v>494524</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H18" s="7">
         <v>639</v>
@@ -2257,13 +2221,13 @@
         <v>652403</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="M18" s="7">
         <v>1153</v>
@@ -2272,13 +2236,13 @@
         <v>1146927</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2293,13 +2257,13 @@
         <v>502466</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H19" s="7">
         <v>661</v>
@@ -2308,13 +2272,13 @@
         <v>676842</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M19" s="7">
         <v>1184</v>
@@ -2323,18 +2287,18 @@
         <v>1179308</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -2353,7 +2317,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D58E8EA-1FE5-4953-BC86-16F4DCA6F613}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{009F231A-62C3-4964-967B-3AA4CB3B621E}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2370,7 +2334,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2477,13 +2441,13 @@
         <v>7172</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H4" s="7">
         <v>15</v>
@@ -2492,13 +2456,13 @@
         <v>17166</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="M4" s="7">
         <v>22</v>
@@ -2507,19 +2471,19 @@
         <v>24338</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
         <v>11</v>
@@ -2528,13 +2492,13 @@
         <v>14252</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>104</v>
       </c>
       <c r="H5" s="7">
         <v>17</v>
@@ -2543,13 +2507,13 @@
         <v>18305</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>106</v>
+        <v>44</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="M5" s="7">
         <v>28</v>
@@ -2558,19 +2522,19 @@
         <v>32557</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>108</v>
+        <v>79</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
         <v>360</v>
@@ -2579,13 +2543,13 @@
         <v>392974</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>36</v>
+        <v>109</v>
       </c>
       <c r="H6" s="7">
         <v>564</v>
@@ -2594,13 +2558,13 @@
         <v>599074</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="M6" s="7">
         <v>924</v>
@@ -2609,13 +2573,13 @@
         <v>992047</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2630,13 +2594,13 @@
         <v>414398</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H7" s="7">
         <v>596</v>
@@ -2645,13 +2609,13 @@
         <v>634545</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M7" s="7">
         <v>974</v>
@@ -2660,18 +2624,18 @@
         <v>1048942</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -2686,10 +2650,10 @@
         <v>12</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="H8" s="7">
         <v>2</v>
@@ -2698,13 +2662,13 @@
         <v>2344</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="M8" s="7">
         <v>2</v>
@@ -2713,19 +2677,19 @@
         <v>2344</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C9" s="7">
         <v>3</v>
@@ -2734,13 +2698,13 @@
         <v>3134</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>124</v>
+        <v>74</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -2752,10 +2716,10 @@
         <v>12</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="M9" s="7">
         <v>3</v>
@@ -2764,19 +2728,19 @@
         <v>3134</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C10" s="7">
         <v>102</v>
@@ -2785,13 +2749,13 @@
         <v>115531</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="H10" s="7">
         <v>75</v>
@@ -2800,13 +2764,13 @@
         <v>80730</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>134</v>
+        <v>81</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M10" s="7">
         <v>177</v>
@@ -2815,13 +2779,13 @@
         <v>196262</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2836,13 +2800,13 @@
         <v>118665</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H11" s="7">
         <v>77</v>
@@ -2851,13 +2815,13 @@
         <v>83074</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M11" s="7">
         <v>182</v>
@@ -2866,18 +2830,18 @@
         <v>201739</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -2892,10 +2856,10 @@
         <v>12</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -2907,10 +2871,10 @@
         <v>12</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -2922,16 +2886,16 @@
         <v>12</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C13" s="7">
         <v>0</v>
@@ -2943,10 +2907,10 @@
         <v>12</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -2958,10 +2922,10 @@
         <v>12</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -2973,16 +2937,16 @@
         <v>12</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C14" s="7">
         <v>21</v>
@@ -2991,13 +2955,13 @@
         <v>26575</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H14" s="7">
         <v>18</v>
@@ -3006,13 +2970,13 @@
         <v>22246</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M14" s="7">
         <v>39</v>
@@ -3021,13 +2985,13 @@
         <v>48821</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3042,13 +3006,13 @@
         <v>26575</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H15" s="7">
         <v>18</v>
@@ -3057,13 +3021,13 @@
         <v>22246</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M15" s="7">
         <v>39</v>
@@ -3072,13 +3036,13 @@
         <v>48821</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3095,13 +3059,13 @@
         <v>7172</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="H16" s="7">
         <v>17</v>
@@ -3110,13 +3074,13 @@
         <v>19510</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>124</v>
+        <v>74</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>148</v>
+        <v>98</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="M16" s="7">
         <v>24</v>
@@ -3125,19 +3089,19 @@
         <v>26682</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>73</v>
+        <v>145</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>151</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
         <v>14</v>
@@ -3146,13 +3110,13 @@
         <v>17386</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="H17" s="7">
         <v>17</v>
@@ -3161,13 +3125,13 @@
         <v>18305</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="M17" s="7">
         <v>31</v>
@@ -3176,19 +3140,19 @@
         <v>35691</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C18" s="7">
         <v>483</v>
@@ -3197,13 +3161,13 @@
         <v>535079</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="H18" s="7">
         <v>657</v>
@@ -3212,13 +3176,13 @@
         <v>702050</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="M18" s="7">
         <v>1140</v>
@@ -3227,13 +3191,13 @@
         <v>1237129</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3248,13 +3212,13 @@
         <v>559637</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H19" s="7">
         <v>691</v>
@@ -3263,13 +3227,13 @@
         <v>739865</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M19" s="7">
         <v>1195</v>
@@ -3278,18 +3242,18 @@
         <v>1299502</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -3308,7 +3272,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9245DE60-FEDF-4858-8F19-D16F1D706174}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DCB2D12-5D8D-42F6-86C3-665BD2C1362B}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3325,7 +3289,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3432,13 +3396,13 @@
         <v>3664</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>72</v>
+        <v>166</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="H4" s="7">
         <v>7</v>
@@ -3447,13 +3411,13 @@
         <v>9441</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="M4" s="7">
         <v>11</v>
@@ -3462,19 +3426,19 @@
         <v>13105</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>174</v>
+        <v>13</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>95</v>
+        <v>170</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>175</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
         <v>14</v>
@@ -3483,13 +3447,13 @@
         <v>12200</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="H5" s="7">
         <v>10</v>
@@ -3498,13 +3462,13 @@
         <v>11721</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="M5" s="7">
         <v>24</v>
@@ -3513,34 +3477,34 @@
         <v>23921</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
         <v>368</v>
       </c>
       <c r="D6" s="7">
-        <v>338038</v>
+        <v>338037</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>185</v>
+        <v>38</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="H6" s="7">
         <v>454</v>
@@ -3549,13 +3513,13 @@
         <v>533595</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="M6" s="7">
         <v>822</v>
@@ -3564,13 +3528,13 @@
         <v>871632</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3582,16 +3546,16 @@
         <v>386</v>
       </c>
       <c r="D7" s="7">
-        <v>353902</v>
+        <v>353901</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H7" s="7">
         <v>471</v>
@@ -3600,13 +3564,13 @@
         <v>554757</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M7" s="7">
         <v>857</v>
@@ -3615,18 +3579,18 @@
         <v>908658</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -3638,13 +3602,13 @@
         <v>1804</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -3656,10 +3620,10 @@
         <v>12</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="M8" s="7">
         <v>2</v>
@@ -3668,19 +3632,19 @@
         <v>1804</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C9" s="7">
         <v>0</v>
@@ -3692,10 +3656,10 @@
         <v>12</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="H9" s="7">
         <v>1</v>
@@ -3704,13 +3668,13 @@
         <v>1012</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="M9" s="7">
         <v>1</v>
@@ -3719,19 +3683,19 @@
         <v>1012</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>72</v>
+        <v>166</v>
       </c>
       <c r="P9" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>201</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C10" s="7">
         <v>195</v>
@@ -3740,13 +3704,13 @@
         <v>190728</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H10" s="7">
         <v>156</v>
@@ -3755,13 +3719,13 @@
         <v>187062</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M10" s="7">
         <v>351</v>
@@ -3770,13 +3734,13 @@
         <v>377789</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3791,13 +3755,13 @@
         <v>192532</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H11" s="7">
         <v>157</v>
@@ -3806,13 +3770,13 @@
         <v>188074</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M11" s="7">
         <v>354</v>
@@ -3821,18 +3785,18 @@
         <v>380606</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -3847,10 +3811,10 @@
         <v>12</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -3862,10 +3826,10 @@
         <v>12</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -3877,16 +3841,16 @@
         <v>12</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C13" s="7">
         <v>0</v>
@@ -3898,10 +3862,10 @@
         <v>12</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -3910,13 +3874,13 @@
         <v>1376</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>149</v>
+        <v>204</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="M13" s="7">
         <v>1</v>
@@ -3925,19 +3889,19 @@
         <v>1376</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C14" s="7">
         <v>41</v>
@@ -3946,13 +3910,13 @@
         <v>42029</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H14" s="7">
         <v>25</v>
@@ -3961,13 +3925,13 @@
         <v>32298</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M14" s="7">
         <v>66</v>
@@ -3976,13 +3940,13 @@
         <v>74327</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3997,13 +3961,13 @@
         <v>42029</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H15" s="7">
         <v>26</v>
@@ -4012,13 +3976,13 @@
         <v>33674</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M15" s="7">
         <v>67</v>
@@ -4027,13 +3991,13 @@
         <v>75703</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4050,13 +4014,13 @@
         <v>5468</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="H16" s="7">
         <v>7</v>
@@ -4065,13 +4029,13 @@
         <v>9441</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>175</v>
+        <v>218</v>
       </c>
       <c r="M16" s="7">
         <v>13</v>
@@ -4080,19 +4044,19 @@
         <v>14909</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
         <v>14</v>
@@ -4101,13 +4065,13 @@
         <v>12200</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>70</v>
+        <v>222</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="H17" s="7">
         <v>12</v>
@@ -4116,13 +4080,13 @@
         <v>14109</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>152</v>
+        <v>226</v>
       </c>
       <c r="M17" s="7">
         <v>26</v>
@@ -4131,19 +4095,19 @@
         <v>26309</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>230</v>
+        <v>172</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>120</v>
+        <v>228</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C18" s="7">
         <v>604</v>
@@ -4152,13 +4116,13 @@
         <v>570795</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>185</v>
+        <v>230</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="H18" s="7">
         <v>635</v>
@@ -4167,13 +4131,13 @@
         <v>752955</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>236</v>
       </c>
       <c r="M18" s="7">
         <v>1239</v>
@@ -4182,13 +4146,13 @@
         <v>1323750</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4203,13 +4167,13 @@
         <v>588463</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H19" s="7">
         <v>654</v>
@@ -4218,13 +4182,13 @@
         <v>776505</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M19" s="7">
         <v>1278</v>
@@ -4233,18 +4197,18 @@
         <v>1364968</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -4263,7 +4227,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AFB9819-1272-4379-B35F-573BBC051903}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6622245F-BD16-4A22-ACFC-E24450767D7A}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4280,7 +4244,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4387,13 +4351,13 @@
         <v>2902</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>243</v>
       </c>
       <c r="H4" s="7">
         <v>20</v>
@@ -4402,13 +4366,13 @@
         <v>14189</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>244</v>
+        <v>194</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>98</v>
+        <v>28</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="M4" s="7">
         <v>26</v>
@@ -4417,19 +4381,19 @@
         <v>17091</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>247</v>
+        <v>145</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>248</v>
+        <v>224</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
         <v>6</v>
@@ -4438,13 +4402,13 @@
         <v>3907</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="H5" s="7">
         <v>43</v>
@@ -4453,13 +4417,13 @@
         <v>26435</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="M5" s="7">
         <v>49</v>
@@ -4468,19 +4432,19 @@
         <v>30341</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>255</v>
+        <v>23</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>256</v>
+        <v>75</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
         <v>415</v>
@@ -4489,13 +4453,13 @@
         <v>279969</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>190</v>
+        <v>36</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>118</v>
+        <v>251</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>57</v>
+        <v>252</v>
       </c>
       <c r="H6" s="7">
         <v>955</v>
@@ -4504,13 +4468,13 @@
         <v>514357</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="M6" s="7">
         <v>1370</v>
@@ -4519,13 +4483,13 @@
         <v>794328</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4540,13 +4504,13 @@
         <v>286778</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H7" s="7">
         <v>1018</v>
@@ -4555,13 +4519,13 @@
         <v>554981</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M7" s="7">
         <v>1445</v>
@@ -4570,18 +4534,18 @@
         <v>841760</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -4596,10 +4560,10 @@
         <v>12</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -4608,13 +4572,13 @@
         <v>473</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>266</v>
+        <v>17</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -4623,19 +4587,19 @@
         <v>473</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>268</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C9" s="7">
         <v>13</v>
@@ -4644,13 +4608,13 @@
         <v>9091</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>270</v>
+        <v>147</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="H9" s="7">
         <v>19</v>
@@ -4659,13 +4623,13 @@
         <v>9161</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>273</v>
+        <v>14</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="M9" s="7">
         <v>32</v>
@@ -4674,19 +4638,19 @@
         <v>18252</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>277</v>
+        <v>154</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C10" s="7">
         <v>413</v>
@@ -4695,13 +4659,13 @@
         <v>285475</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>164</v>
+        <v>269</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="H10" s="7">
         <v>509</v>
@@ -4710,13 +4674,13 @@
         <v>376788</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="M10" s="7">
         <v>922</v>
@@ -4725,13 +4689,13 @@
         <v>662263</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4746,13 +4710,13 @@
         <v>294566</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H11" s="7">
         <v>529</v>
@@ -4761,13 +4725,13 @@
         <v>386422</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M11" s="7">
         <v>955</v>
@@ -4776,18 +4740,18 @@
         <v>680988</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -4802,10 +4766,10 @@
         <v>12</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -4817,10 +4781,10 @@
         <v>12</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>231</v>
+        <v>277</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -4832,16 +4796,16 @@
         <v>12</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C13" s="7">
         <v>0</v>
@@ -4853,10 +4817,10 @@
         <v>12</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -4865,13 +4829,13 @@
         <v>621</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>287</v>
+        <v>170</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="M13" s="7">
         <v>1</v>
@@ -4880,19 +4844,19 @@
         <v>621</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>289</v>
+        <v>214</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>198</v>
+        <v>280</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C14" s="7">
         <v>168</v>
@@ -4901,13 +4865,13 @@
         <v>111986</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H14" s="7">
         <v>151</v>
@@ -4916,13 +4880,13 @@
         <v>77624</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M14" s="7">
         <v>319</v>
@@ -4931,13 +4895,13 @@
         <v>189610</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4952,13 +4916,13 @@
         <v>111986</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H15" s="7">
         <v>152</v>
@@ -4967,13 +4931,13 @@
         <v>78245</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M15" s="7">
         <v>320</v>
@@ -4982,13 +4946,13 @@
         <v>190231</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5005,13 +4969,13 @@
         <v>2902</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="H16" s="7">
         <v>21</v>
@@ -5020,13 +4984,13 @@
         <v>14662</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>174</v>
+        <v>13</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>287</v>
+        <v>121</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>298</v>
+        <v>142</v>
       </c>
       <c r="M16" s="7">
         <v>27</v>
@@ -5035,19 +4999,19 @@
         <v>17564</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>299</v>
+        <v>223</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>300</v>
+        <v>70</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>301</v>
+        <v>168</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
         <v>19</v>
@@ -5056,13 +5020,13 @@
         <v>12998</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>303</v>
+        <v>119</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>304</v>
+        <v>52</v>
       </c>
       <c r="H17" s="7">
         <v>63</v>
@@ -5071,13 +5035,13 @@
         <v>36217</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>306</v>
+        <v>291</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>123</v>
+        <v>292</v>
       </c>
       <c r="M17" s="7">
         <v>82</v>
@@ -5086,19 +5050,19 @@
         <v>49215</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>307</v>
+        <v>293</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>308</v>
+        <v>294</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>255</v>
+        <v>295</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C18" s="7">
         <v>996</v>
@@ -5107,13 +5071,13 @@
         <v>677430</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>88</v>
+        <v>296</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>310</v>
+        <v>298</v>
       </c>
       <c r="H18" s="7">
         <v>1615</v>
@@ -5122,13 +5086,13 @@
         <v>968770</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>311</v>
+        <v>54</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>313</v>
+        <v>300</v>
       </c>
       <c r="M18" s="7">
         <v>2611</v>
@@ -5137,13 +5101,13 @@
         <v>1646201</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>314</v>
+        <v>301</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>315</v>
+        <v>302</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>232</v>
+        <v>303</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5158,13 +5122,13 @@
         <v>693330</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H19" s="7">
         <v>1699</v>
@@ -5173,13 +5137,13 @@
         <v>1019649</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M19" s="7">
         <v>2720</v>
@@ -5188,18 +5152,18 @@
         <v>1712979</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/Q5410-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Q5410-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{14029A4E-18CE-4DC4-8BB9-786CB59B6B1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1ABF11AB-0D90-43FC-A71C-686C2D2945DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E21C6B76-7D04-4050-964B-199B409D44D1}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{71081334-9394-4608-9BF2-4FE8B1C3FCCF}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="308">
   <si>
     <t>Población según si se le escapa la caca (incontinencia) en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
@@ -80,862 +80,874 @@
     <t>0,0%</t>
   </si>
   <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>Pocas veces</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>96,6%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>96,04%</t>
+  </si>
+  <si>
+    <t>94,28%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>90,78%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>94,59%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si se le escapa la caca (incontinencia) en 2012 (Tasa respuesta: 18,41%)</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
     <t>1,44%</t>
   </si>
   <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>Pocas veces</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>94,83%</t>
+  </si>
+  <si>
+    <t>91,89%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>94,41%</t>
+  </si>
+  <si>
+    <t>92,53%</t>
+  </si>
+  <si>
+    <t>96,19%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>93,0%</t>
+  </si>
+  <si>
+    <t>95,95%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>92,1%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>90,69%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
+  </si>
+  <si>
+    <t>90,01%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>93,21%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>94,89%</t>
+  </si>
+  <si>
+    <t>93,06%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>93,92%</t>
+  </si>
+  <si>
+    <t>96,36%</t>
+  </si>
+  <si>
+    <t>Población según si se le escapa la caca (incontinencia) en 2016 (Tasa respuesta: 19,52%)</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>94,19%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>79,14%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>91,7%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>97,0%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>95,28%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>Población según si se le escapa la caca (incontinencia) en 2023 (Tasa respuesta: 31,25%)</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
   </si>
   <si>
     <t>3,6%</t>
   </si>
   <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
+    <t>4,65%</t>
   </si>
   <si>
     <t>97,63%</t>
   </si>
   <si>
-    <t>96,83%</t>
-  </si>
-  <si>
-    <t>95,52%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
+  </si>
+  <si>
+    <t>90,45%</t>
+  </si>
+  <si>
+    <t>94,29%</t>
+  </si>
+  <si>
+    <t>94,37%</t>
+  </si>
+  <si>
+    <t>92,86%</t>
+  </si>
+  <si>
+    <t>95,64%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>94,6%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>96,03%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
   </si>
   <si>
     <t>2,92%</t>
   </si>
   <si>
-    <t>99,08%</t>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>96,61%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
   </si>
   <si>
     <t>95,01%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>90,56%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>95,77%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si se le escapa la caca (incontinencia) en 2012 (Tasa respuesta: 18,41%)</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>94,83%</t>
-  </si>
-  <si>
-    <t>92,07%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>94,41%</t>
-  </si>
-  <si>
-    <t>92,17%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>93,05%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>92,77%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>88,62%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>93,94%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>90,01%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>93,39%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>94,89%</t>
-  </si>
-  <si>
-    <t>92,98%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>Población según si se le escapa la caca (incontinencia) en 2015 (Tasa respuesta: 19,52%)</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>93,21%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>96,19%</t>
-  </si>
-  <si>
-    <t>93,86%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>94,5%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>80,43%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>87,79%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>97,0%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>95,35%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>Población según si se le escapa la caca (incontinencia) en 2023 (Tasa respuesta: 31,25%)</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
-  </si>
-  <si>
-    <t>90,45%</t>
-  </si>
-  <si>
-    <t>94,29%</t>
-  </si>
-  <si>
-    <t>94,37%</t>
-  </si>
-  <si>
-    <t>92,86%</t>
-  </si>
-  <si>
-    <t>95,64%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>94,6%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>96,03%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
   </si>
   <si>
     <t>93,63%</t>
@@ -1362,7 +1374,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68625BC0-7B39-4036-A29B-7A71D7C7BCF8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E5E6BD7-FAE3-43D2-BFAC-6BF382DA54FC}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1600,7 +1612,7 @@
         <v>553</v>
       </c>
       <c r="I6" s="7">
-        <v>564451</v>
+        <v>564452</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -1651,7 +1663,7 @@
         <v>574</v>
       </c>
       <c r="I7" s="7">
-        <v>587749</v>
+        <v>587750</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>40</v>
@@ -2110,7 +2122,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="H16" s="7">
         <v>6</v>
@@ -2119,13 +2131,13 @@
         <v>6754</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="M16" s="7">
         <v>7</v>
@@ -2158,10 +2170,10 @@
         <v>73</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>17</v>
+        <v>74</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H17" s="7">
         <v>16</v>
@@ -2170,10 +2182,10 @@
         <v>17685</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>76</v>
+        <v>19</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>77</v>
@@ -2185,13 +2197,13 @@
         <v>24788</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>16</v>
+        <v>78</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2206,13 +2218,13 @@
         <v>494524</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H18" s="7">
         <v>639</v>
@@ -2221,13 +2233,13 @@
         <v>652403</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M18" s="7">
         <v>1153</v>
@@ -2236,13 +2248,13 @@
         <v>1146927</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2298,7 +2310,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -2317,7 +2329,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{009F231A-62C3-4964-967B-3AA4CB3B621E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A69A717B-2D86-41F6-AFEB-971D770781EE}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2334,7 +2346,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2441,13 +2453,13 @@
         <v>7172</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H4" s="7">
         <v>15</v>
@@ -2456,13 +2468,13 @@
         <v>17166</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M4" s="7">
         <v>22</v>
@@ -2471,10 +2483,10 @@
         <v>24338</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>98</v>
+        <v>73</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>99</v>
@@ -2510,10 +2522,10 @@
         <v>103</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>44</v>
+        <v>104</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M5" s="7">
         <v>28</v>
@@ -2522,13 +2534,13 @@
         <v>32557</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>79</v>
+        <v>106</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2543,13 +2555,13 @@
         <v>392974</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="H6" s="7">
         <v>564</v>
@@ -2558,13 +2570,13 @@
         <v>599074</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="M6" s="7">
         <v>924</v>
@@ -2573,13 +2585,13 @@
         <v>992047</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2653,7 +2665,7 @@
         <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H8" s="7">
         <v>2</v>
@@ -2662,13 +2674,13 @@
         <v>2344</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M8" s="7">
         <v>2</v>
@@ -2677,13 +2689,13 @@
         <v>2344</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2698,13 +2710,13 @@
         <v>3134</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>74</v>
+        <v>123</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>121</v>
+        <v>68</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -2719,7 +2731,7 @@
         <v>42</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="M9" s="7">
         <v>3</v>
@@ -2728,13 +2740,13 @@
         <v>3134</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2749,13 +2761,13 @@
         <v>115531</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="H10" s="7">
         <v>75</v>
@@ -2764,10 +2776,10 @@
         <v>80730</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>81</v>
+        <v>132</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>55</v>
@@ -2779,13 +2791,13 @@
         <v>196262</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2859,7 +2871,7 @@
         <v>42</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -2874,7 +2886,7 @@
         <v>42</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -2889,7 +2901,7 @@
         <v>42</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2910,7 +2922,7 @@
         <v>42</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -2925,7 +2937,7 @@
         <v>42</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -2940,7 +2952,7 @@
         <v>42</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2958,7 +2970,7 @@
         <v>55</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>40</v>
@@ -2973,7 +2985,7 @@
         <v>55</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>40</v>
@@ -2988,7 +3000,7 @@
         <v>55</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>40</v>
@@ -3059,13 +3071,13 @@
         <v>7172</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>140</v>
+        <v>13</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>141</v>
+        <v>74</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H16" s="7">
         <v>17</v>
@@ -3074,13 +3086,13 @@
         <v>19510</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>74</v>
+        <v>123</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>98</v>
+        <v>144</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="M16" s="7">
         <v>24</v>
@@ -3089,13 +3101,13 @@
         <v>26682</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>145</v>
+        <v>79</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>63</v>
+        <v>147</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3110,13 +3122,13 @@
         <v>17386</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="H17" s="7">
         <v>17</v>
@@ -3125,13 +3137,13 @@
         <v>18305</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="M17" s="7">
         <v>31</v>
@@ -3140,13 +3152,13 @@
         <v>35691</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>152</v>
+        <v>75</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3161,13 +3173,13 @@
         <v>535079</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H18" s="7">
         <v>657</v>
@@ -3176,13 +3188,13 @@
         <v>702050</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M18" s="7">
         <v>1140</v>
@@ -3191,13 +3203,13 @@
         <v>1237129</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3253,7 +3265,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -3272,7 +3284,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DCB2D12-5D8D-42F6-86C3-665BD2C1362B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B487D02-3D74-4A71-AE87-BA9B1A58CE51}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3289,7 +3301,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3396,13 +3408,13 @@
         <v>3664</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H4" s="7">
         <v>7</v>
@@ -3411,10 +3423,10 @@
         <v>9441</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>168</v>
+        <v>28</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>169</v>
@@ -3426,13 +3438,13 @@
         <v>13105</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>13</v>
+        <v>96</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>170</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>74</v>
+        <v>171</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3447,13 +3459,13 @@
         <v>12200</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H5" s="7">
         <v>10</v>
@@ -3462,13 +3474,13 @@
         <v>11721</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M5" s="7">
         <v>24</v>
@@ -3477,10 +3489,10 @@
         <v>23921</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>178</v>
+        <v>149</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>179</v>
@@ -3495,13 +3507,13 @@
         <v>368</v>
       </c>
       <c r="D6" s="7">
-        <v>338037</v>
+        <v>338038</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>38</v>
+        <v>180</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>180</v>
+        <v>65</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>181</v>
@@ -3513,13 +3525,13 @@
         <v>533595</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="M6" s="7">
         <v>822</v>
@@ -3528,13 +3540,13 @@
         <v>871632</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3546,7 +3558,7 @@
         <v>386</v>
       </c>
       <c r="D7" s="7">
-        <v>353901</v>
+        <v>353902</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>40</v>
@@ -3602,13 +3614,13 @@
         <v>1804</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -3623,7 +3635,7 @@
         <v>42</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M8" s="7">
         <v>2</v>
@@ -3632,13 +3644,13 @@
         <v>1804</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3659,7 +3671,7 @@
         <v>42</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H9" s="7">
         <v>1</v>
@@ -3674,7 +3686,7 @@
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="M9" s="7">
         <v>1</v>
@@ -3683,13 +3695,13 @@
         <v>1012</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>166</v>
+        <v>71</v>
       </c>
       <c r="P9" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>72</v>
+        <v>194</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3844,7 +3856,7 @@
         <v>42</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4035,7 +4047,7 @@
         <v>217</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>218</v>
+        <v>125</v>
       </c>
       <c r="M16" s="7">
         <v>13</v>
@@ -4044,13 +4056,13 @@
         <v>14909</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="P16" s="7" t="s">
-        <v>220</v>
-      </c>
       <c r="Q16" s="7" t="s">
-        <v>221</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4065,13 +4077,13 @@
         <v>12200</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>222</v>
+        <v>107</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H17" s="7">
         <v>12</v>
@@ -4083,10 +4095,10 @@
         <v>206</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>226</v>
+        <v>23</v>
       </c>
       <c r="M17" s="7">
         <v>26</v>
@@ -4095,13 +4107,13 @@
         <v>26309</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>172</v>
+        <v>223</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>227</v>
+        <v>72</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>228</v>
+        <v>119</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4116,13 +4128,13 @@
         <v>570795</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>231</v>
+        <v>56</v>
       </c>
       <c r="H18" s="7">
         <v>635</v>
@@ -4131,13 +4143,13 @@
         <v>752955</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>234</v>
+        <v>89</v>
       </c>
       <c r="M18" s="7">
         <v>1239</v>
@@ -4146,13 +4158,13 @@
         <v>1323750</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4208,7 +4220,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -4227,7 +4239,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6622245F-BD16-4A22-ACFC-E24450767D7A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55AE0EC4-8751-4335-A039-78D91EA1F9BC}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4244,7 +4256,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4351,13 +4363,13 @@
         <v>2902</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>241</v>
+        <v>168</v>
       </c>
       <c r="H4" s="7">
         <v>20</v>
@@ -4366,13 +4378,13 @@
         <v>14189</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>194</v>
+        <v>234</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>28</v>
+        <v>235</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="M4" s="7">
         <v>26</v>
@@ -4381,13 +4393,13 @@
         <v>17091</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>145</v>
+        <v>238</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>224</v>
+        <v>239</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4402,13 +4414,13 @@
         <v>3907</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="H5" s="7">
         <v>43</v>
@@ -4417,13 +4429,13 @@
         <v>26435</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="M5" s="7">
         <v>49</v>
@@ -4432,13 +4444,13 @@
         <v>30341</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>23</v>
+        <v>246</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4453,13 +4465,13 @@
         <v>279969</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>36</v>
+        <v>248</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="H6" s="7">
         <v>955</v>
@@ -4468,13 +4480,13 @@
         <v>514357</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>253</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>255</v>
       </c>
       <c r="M6" s="7">
         <v>1370</v>
@@ -4483,13 +4495,13 @@
         <v>794328</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4563,7 +4575,7 @@
         <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -4572,7 +4584,7 @@
         <v>473</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>12</v>
@@ -4587,13 +4599,13 @@
         <v>473</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>125</v>
+        <v>217</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4608,13 +4620,13 @@
         <v>9091</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="H9" s="7">
         <v>19</v>
@@ -4623,13 +4635,13 @@
         <v>9161</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="M9" s="7">
         <v>32</v>
@@ -4638,13 +4650,13 @@
         <v>18252</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4659,13 +4671,13 @@
         <v>285475</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>270</v>
       </c>
       <c r="H10" s="7">
         <v>509</v>
@@ -4674,13 +4686,13 @@
         <v>376788</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="K10" s="7" t="s">
-        <v>272</v>
-      </c>
       <c r="L10" s="7" t="s">
-        <v>273</v>
+        <v>136</v>
       </c>
       <c r="M10" s="7">
         <v>922</v>
@@ -4689,13 +4701,13 @@
         <v>662263</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4769,7 +4781,7 @@
         <v>42</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -4784,7 +4796,7 @@
         <v>42</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -4799,7 +4811,7 @@
         <v>42</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4820,7 +4832,7 @@
         <v>42</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -4829,13 +4841,13 @@
         <v>621</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>170</v>
+        <v>277</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="M13" s="7">
         <v>1</v>
@@ -4844,7 +4856,7 @@
         <v>621</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>214</v>
+        <v>279</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>12</v>
@@ -4984,13 +4996,13 @@
         <v>14662</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>13</v>
+        <v>96</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>121</v>
+        <v>289</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>142</v>
+        <v>290</v>
       </c>
       <c r="M16" s="7">
         <v>27</v>
@@ -4999,13 +5011,13 @@
         <v>17564</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>223</v>
+        <v>176</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>70</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>168</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5020,13 +5032,13 @@
         <v>12998</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>52</v>
+        <v>292</v>
       </c>
       <c r="H17" s="7">
         <v>63</v>
@@ -5035,13 +5047,13 @@
         <v>36217</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="M17" s="7">
         <v>82</v>
@@ -5050,13 +5062,13 @@
         <v>49215</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5071,13 +5083,13 @@
         <v>677430</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="H18" s="7">
         <v>1615</v>
@@ -5086,13 +5098,13 @@
         <v>968770</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>54</v>
+        <v>302</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="M18" s="7">
         <v>2611</v>
@@ -5101,13 +5113,13 @@
         <v>1646201</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5163,7 +5175,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/Q5410-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Q5410-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1ABF11AB-0D90-43FC-A71C-686C2D2945DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FF09A385-5CAE-492E-81E5-607142F42749}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{71081334-9394-4608-9BF2-4FE8B1C3FCCF}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{66C82478-1D5A-439B-9CF2-1A9E8E5C99FF}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="316">
   <si>
     <t>Población según si se le escapa la caca (incontinencia) en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
@@ -80,889 +80,913 @@
     <t>0,0%</t>
   </si>
   <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>Pocas veces</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>96,04%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>95,32%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>95,27%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>90,44%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>94,54%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si se le escapa la caca (incontinencia) en 2012 (Tasa respuesta: 18,41%)</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>94,83%</t>
+  </si>
+  <si>
+    <t>91,92%</t>
+  </si>
+  <si>
+    <t>94,41%</t>
+  </si>
+  <si>
+    <t>92,45%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>92,85%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>92,96%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>89,02%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>93,87%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
+  </si>
+  <si>
+    <t>90,01%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
+  </si>
+  <si>
     <t>1,28%</t>
   </si>
   <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>93,39%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>94,89%</t>
+  </si>
+  <si>
+    <t>93,1%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>93,81%</t>
+  </si>
+  <si>
+    <t>96,36%</t>
+  </si>
+  <si>
+    <t>Población según si se le escapa la caca (incontinencia) en 2016 (Tasa respuesta: 19,52%)</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
+  </si>
+  <si>
+    <t>93,11%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>96,19%</t>
+  </si>
+  <si>
+    <t>93,74%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>94,35%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>79,61%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>88,76%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>97,0%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>95,24%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>Población según si se le escapa la caca (incontinencia) en 2023 (Tasa respuesta: 31,25%)</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
+  </si>
+  <si>
+    <t>90,51%</t>
+  </si>
+  <si>
+    <t>94,44%</t>
+  </si>
+  <si>
+    <t>94,37%</t>
+  </si>
+  <si>
+    <t>92,56%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>96,03%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
   </si>
   <si>
     <t>2,2%</t>
   </si>
   <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>Pocas veces</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>96,6%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
-  </si>
-  <si>
-    <t>94,28%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>90,78%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>94,59%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si se le escapa la caca (incontinencia) en 2012 (Tasa respuesta: 18,41%)</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>94,83%</t>
-  </si>
-  <si>
-    <t>91,89%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>94,41%</t>
-  </si>
-  <si>
-    <t>92,53%</t>
-  </si>
-  <si>
-    <t>96,19%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>93,0%</t>
-  </si>
-  <si>
-    <t>95,95%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>92,1%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>90,69%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>90,01%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>93,21%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>94,89%</t>
-  </si>
-  <si>
-    <t>93,06%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>93,92%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>Población según si se le escapa la caca (incontinencia) en 2016 (Tasa respuesta: 19,52%)</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>95,52%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>94,19%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>79,14%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>91,7%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>97,0%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>95,28%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>Población según si se le escapa la caca (incontinencia) en 2023 (Tasa respuesta: 31,25%)</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
-  </si>
-  <si>
-    <t>90,45%</t>
-  </si>
-  <si>
-    <t>94,29%</t>
-  </si>
-  <si>
-    <t>94,37%</t>
-  </si>
-  <si>
-    <t>92,86%</t>
-  </si>
-  <si>
-    <t>95,64%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>94,6%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>96,03%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
   </si>
   <si>
     <t>95,01%</t>
   </si>
   <si>
-    <t>93,63%</t>
-  </si>
-  <si>
-    <t>96,68%</t>
+    <t>93,52%</t>
+  </si>
+  <si>
+    <t>96,71%</t>
   </si>
   <si>
     <t>96,1%</t>
   </si>
   <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
+    <t>95,17%</t>
   </si>
 </sst>
 </file>
@@ -1374,7 +1398,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E5E6BD7-FAE3-43D2-BFAC-6BF382DA54FC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{024ADEF6-73A5-4641-A42C-82B21D60C3C8}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1531,16 +1555,16 @@
         <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>18</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
         <v>7</v>
@@ -1549,13 +1573,13 @@
         <v>6294</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>22</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>23</v>
       </c>
       <c r="H5" s="7">
         <v>16</v>
@@ -1564,13 +1588,13 @@
         <v>17685</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>25</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>26</v>
       </c>
       <c r="M5" s="7">
         <v>23</v>
@@ -1579,19 +1603,19 @@
         <v>23979</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" s="7">
         <v>391</v>
@@ -1600,13 +1624,13 @@
         <v>366057</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>33</v>
       </c>
       <c r="H6" s="7">
         <v>553</v>
@@ -1615,13 +1639,13 @@
         <v>564452</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>36</v>
       </c>
       <c r="M6" s="7">
         <v>944</v>
@@ -1630,13 +1654,13 @@
         <v>930508</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1651,13 +1675,13 @@
         <v>373189</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H7" s="7">
         <v>574</v>
@@ -1666,13 +1690,13 @@
         <v>587750</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M7" s="7">
         <v>973</v>
@@ -1681,18 +1705,18 @@
         <v>960938</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -1707,10 +1731,10 @@
         <v>12</v>
       </c>
       <c r="F8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -1719,13 +1743,13 @@
         <v>1141</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -1734,19 +1758,19 @@
         <v>1141</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" s="7">
         <v>1</v>
@@ -1755,13 +1779,13 @@
         <v>810</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -1773,10 +1797,10 @@
         <v>12</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M9" s="7">
         <v>1</v>
@@ -1785,19 +1809,19 @@
         <v>810</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P9" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C10" s="7">
         <v>88</v>
@@ -1806,13 +1830,13 @@
         <v>87273</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>55</v>
       </c>
       <c r="H10" s="7">
         <v>59</v>
@@ -1821,13 +1845,13 @@
         <v>61071</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="K10" s="7" t="s">
-        <v>57</v>
-      </c>
       <c r="L10" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M10" s="7">
         <v>147</v>
@@ -1836,13 +1860,13 @@
         <v>148344</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="P10" s="7" t="s">
-        <v>59</v>
-      </c>
       <c r="Q10" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1857,13 +1881,13 @@
         <v>88083</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H11" s="7">
         <v>60</v>
@@ -1872,13 +1896,13 @@
         <v>62212</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M11" s="7">
         <v>149</v>
@@ -1887,18 +1911,18 @@
         <v>150295</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -1913,10 +1937,10 @@
         <v>12</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -1928,10 +1952,10 @@
         <v>12</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -1943,16 +1967,16 @@
         <v>12</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C13" s="7">
         <v>0</v>
@@ -1964,10 +1988,10 @@
         <v>12</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -1979,10 +2003,10 @@
         <v>12</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -1994,16 +2018,16 @@
         <v>12</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C14" s="7">
         <v>35</v>
@@ -2012,13 +2036,13 @@
         <v>41194</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H14" s="7">
         <v>27</v>
@@ -2027,13 +2051,13 @@
         <v>26881</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M14" s="7">
         <v>62</v>
@@ -2042,13 +2066,13 @@
         <v>68075</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2063,13 +2087,13 @@
         <v>41194</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H15" s="7">
         <v>27</v>
@@ -2078,13 +2102,13 @@
         <v>26881</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M15" s="7">
         <v>62</v>
@@ -2093,13 +2117,13 @@
         <v>68075</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2116,13 +2140,13 @@
         <v>838</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H16" s="7">
         <v>6</v>
@@ -2131,13 +2155,13 @@
         <v>6754</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="K16" s="7" t="s">
-        <v>15</v>
-      </c>
       <c r="L16" s="7" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="M16" s="7">
         <v>7</v>
@@ -2146,19 +2170,19 @@
         <v>7592</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" s="7">
         <v>8</v>
@@ -2167,13 +2191,13 @@
         <v>7104</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H17" s="7">
         <v>16</v>
@@ -2182,13 +2206,13 @@
         <v>17685</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>19</v>
+        <v>78</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="M17" s="7">
         <v>24</v>
@@ -2197,19 +2221,19 @@
         <v>24788</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C18" s="7">
         <v>514</v>
@@ -2218,13 +2242,13 @@
         <v>494524</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="H18" s="7">
         <v>639</v>
@@ -2233,13 +2257,13 @@
         <v>652403</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="M18" s="7">
         <v>1153</v>
@@ -2248,13 +2272,13 @@
         <v>1146927</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2269,13 +2293,13 @@
         <v>502466</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H19" s="7">
         <v>661</v>
@@ -2284,13 +2308,13 @@
         <v>676842</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M19" s="7">
         <v>1184</v>
@@ -2299,18 +2323,18 @@
         <v>1179308</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -2329,7 +2353,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A69A717B-2D86-41F6-AFEB-971D770781EE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F21D0DE5-AA4D-4558-BBB0-BC327C7C93AD}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2346,7 +2370,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2453,13 +2477,13 @@
         <v>7172</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H4" s="7">
         <v>15</v>
@@ -2468,13 +2492,13 @@
         <v>17166</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="M4" s="7">
         <v>22</v>
@@ -2483,19 +2507,19 @@
         <v>24338</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
         <v>11</v>
@@ -2504,13 +2528,13 @@
         <v>14252</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H5" s="7">
         <v>17</v>
@@ -2519,13 +2543,13 @@
         <v>18305</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="M5" s="7">
         <v>28</v>
@@ -2534,19 +2558,19 @@
         <v>32557</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" s="7">
         <v>360</v>
@@ -2555,13 +2579,13 @@
         <v>392974</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>111</v>
+        <v>36</v>
       </c>
       <c r="H6" s="7">
         <v>564</v>
@@ -2570,13 +2594,13 @@
         <v>599074</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M6" s="7">
         <v>924</v>
@@ -2585,13 +2609,13 @@
         <v>992047</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2606,13 +2630,13 @@
         <v>414398</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H7" s="7">
         <v>596</v>
@@ -2621,13 +2645,13 @@
         <v>634545</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M7" s="7">
         <v>974</v>
@@ -2636,18 +2660,18 @@
         <v>1048942</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -2662,10 +2686,10 @@
         <v>12</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H8" s="7">
         <v>2</v>
@@ -2674,13 +2698,13 @@
         <v>2344</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M8" s="7">
         <v>2</v>
@@ -2689,19 +2713,19 @@
         <v>2344</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" s="7">
         <v>3</v>
@@ -2710,13 +2734,13 @@
         <v>3134</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>68</v>
+        <v>125</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -2728,10 +2752,10 @@
         <v>12</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="M9" s="7">
         <v>3</v>
@@ -2740,19 +2764,19 @@
         <v>3134</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C10" s="7">
         <v>102</v>
@@ -2761,13 +2785,13 @@
         <v>115531</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="H10" s="7">
         <v>75</v>
@@ -2776,13 +2800,13 @@
         <v>80730</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M10" s="7">
         <v>177</v>
@@ -2791,13 +2815,13 @@
         <v>196262</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2812,13 +2836,13 @@
         <v>118665</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H11" s="7">
         <v>77</v>
@@ -2827,13 +2851,13 @@
         <v>83074</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M11" s="7">
         <v>182</v>
@@ -2842,18 +2866,18 @@
         <v>201739</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -2868,10 +2892,10 @@
         <v>12</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -2883,10 +2907,10 @@
         <v>12</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -2898,16 +2922,16 @@
         <v>12</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C13" s="7">
         <v>0</v>
@@ -2919,10 +2943,10 @@
         <v>12</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -2934,10 +2958,10 @@
         <v>12</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -2949,16 +2973,16 @@
         <v>12</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C14" s="7">
         <v>21</v>
@@ -2967,13 +2991,13 @@
         <v>26575</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H14" s="7">
         <v>18</v>
@@ -2982,13 +3006,13 @@
         <v>22246</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M14" s="7">
         <v>39</v>
@@ -2997,13 +3021,13 @@
         <v>48821</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3018,13 +3042,13 @@
         <v>26575</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H15" s="7">
         <v>18</v>
@@ -3033,13 +3057,13 @@
         <v>22246</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M15" s="7">
         <v>39</v>
@@ -3048,13 +3072,13 @@
         <v>48821</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3071,13 +3095,13 @@
         <v>7172</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>13</v>
+        <v>145</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>74</v>
+        <v>146</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="H16" s="7">
         <v>17</v>
@@ -3086,13 +3110,13 @@
         <v>19510</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="M16" s="7">
         <v>24</v>
@@ -3101,19 +3125,19 @@
         <v>26682</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" s="7">
         <v>14</v>
@@ -3122,13 +3146,13 @@
         <v>17386</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="H17" s="7">
         <v>17</v>
@@ -3137,13 +3161,13 @@
         <v>18305</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="M17" s="7">
         <v>31</v>
@@ -3152,19 +3176,19 @@
         <v>35691</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>75</v>
+        <v>158</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C18" s="7">
         <v>483</v>
@@ -3173,13 +3197,13 @@
         <v>535079</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="H18" s="7">
         <v>657</v>
@@ -3188,13 +3212,13 @@
         <v>702050</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="M18" s="7">
         <v>1140</v>
@@ -3203,13 +3227,13 @@
         <v>1237129</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3224,13 +3248,13 @@
         <v>559637</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H19" s="7">
         <v>691</v>
@@ -3239,13 +3263,13 @@
         <v>739865</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M19" s="7">
         <v>1195</v>
@@ -3254,18 +3278,18 @@
         <v>1299502</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -3284,7 +3308,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B487D02-3D74-4A71-AE87-BA9B1A58CE51}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3BDCB7F-15F0-45AD-8C7A-B7D99D47B214}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3301,7 +3325,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3408,13 +3432,13 @@
         <v>3664</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>167</v>
+        <v>72</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="H4" s="7">
         <v>7</v>
@@ -3423,13 +3447,13 @@
         <v>9441</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>28</v>
+        <v>172</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="M4" s="7">
         <v>11</v>
@@ -3438,19 +3462,19 @@
         <v>13105</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>96</v>
+        <v>174</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>170</v>
+        <v>95</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
         <v>14</v>
@@ -3459,13 +3483,13 @@
         <v>12200</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="H5" s="7">
         <v>10</v>
@@ -3474,13 +3498,13 @@
         <v>11721</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="M5" s="7">
         <v>24</v>
@@ -3489,19 +3513,19 @@
         <v>23921</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>149</v>
+        <v>183</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" s="7">
         <v>368</v>
@@ -3510,13 +3534,13 @@
         <v>338038</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>65</v>
+        <v>186</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="H6" s="7">
         <v>454</v>
@@ -3525,13 +3549,13 @@
         <v>533595</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>114</v>
+        <v>188</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="M6" s="7">
         <v>822</v>
@@ -3540,13 +3564,13 @@
         <v>871632</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3561,13 +3585,13 @@
         <v>353902</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H7" s="7">
         <v>471</v>
@@ -3576,13 +3600,13 @@
         <v>554757</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M7" s="7">
         <v>857</v>
@@ -3591,18 +3615,18 @@
         <v>908658</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -3614,13 +3638,13 @@
         <v>1804</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -3632,10 +3656,10 @@
         <v>12</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="M8" s="7">
         <v>2</v>
@@ -3644,19 +3668,19 @@
         <v>1804</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" s="7">
         <v>0</v>
@@ -3668,10 +3692,10 @@
         <v>12</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="H9" s="7">
         <v>1</v>
@@ -3680,13 +3704,13 @@
         <v>1012</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="M9" s="7">
         <v>1</v>
@@ -3695,19 +3719,19 @@
         <v>1012</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P9" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C10" s="7">
         <v>195</v>
@@ -3716,13 +3740,13 @@
         <v>190728</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H10" s="7">
         <v>156</v>
@@ -3731,13 +3755,13 @@
         <v>187062</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M10" s="7">
         <v>351</v>
@@ -3746,13 +3770,13 @@
         <v>377789</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3767,13 +3791,13 @@
         <v>192532</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H11" s="7">
         <v>157</v>
@@ -3782,13 +3806,13 @@
         <v>188074</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M11" s="7">
         <v>354</v>
@@ -3797,18 +3821,18 @@
         <v>380606</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -3823,10 +3847,10 @@
         <v>12</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -3838,10 +3862,10 @@
         <v>12</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -3853,16 +3877,16 @@
         <v>12</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C13" s="7">
         <v>0</v>
@@ -3874,10 +3898,10 @@
         <v>12</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -3886,13 +3910,13 @@
         <v>1376</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>204</v>
+        <v>149</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="M13" s="7">
         <v>1</v>
@@ -3901,19 +3925,19 @@
         <v>1376</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C14" s="7">
         <v>41</v>
@@ -3922,13 +3946,13 @@
         <v>42029</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H14" s="7">
         <v>25</v>
@@ -3937,13 +3961,13 @@
         <v>32298</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M14" s="7">
         <v>66</v>
@@ -3952,13 +3976,13 @@
         <v>74327</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3973,13 +3997,13 @@
         <v>42029</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H15" s="7">
         <v>26</v>
@@ -3988,13 +4012,13 @@
         <v>33674</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M15" s="7">
         <v>67</v>
@@ -4003,13 +4027,13 @@
         <v>75703</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4026,13 +4050,13 @@
         <v>5468</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="H16" s="7">
         <v>7</v>
@@ -4041,13 +4065,13 @@
         <v>9441</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>125</v>
+        <v>175</v>
       </c>
       <c r="M16" s="7">
         <v>13</v>
@@ -4056,19 +4080,19 @@
         <v>14909</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>44</v>
+        <v>226</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" s="7">
         <v>14</v>
@@ -4077,13 +4101,13 @@
         <v>12200</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>107</v>
+        <v>70</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="H17" s="7">
         <v>12</v>
@@ -4092,13 +4116,13 @@
         <v>14109</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>23</v>
+        <v>152</v>
       </c>
       <c r="M17" s="7">
         <v>26</v>
@@ -4107,19 +4131,19 @@
         <v>26309</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>72</v>
+        <v>231</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C18" s="7">
         <v>604</v>
@@ -4128,13 +4152,13 @@
         <v>570795</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>225</v>
+        <v>185</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>56</v>
+        <v>233</v>
       </c>
       <c r="H18" s="7">
         <v>635</v>
@@ -4143,13 +4167,13 @@
         <v>752955</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>89</v>
+        <v>236</v>
       </c>
       <c r="M18" s="7">
         <v>1239</v>
@@ -4158,13 +4182,13 @@
         <v>1323750</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4179,13 +4203,13 @@
         <v>588463</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H19" s="7">
         <v>654</v>
@@ -4194,13 +4218,13 @@
         <v>776505</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M19" s="7">
         <v>1278</v>
@@ -4209,18 +4233,18 @@
         <v>1364968</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -4239,7 +4263,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55AE0EC4-8751-4335-A039-78D91EA1F9BC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F61CD61-FF71-41F0-B66A-4FE07B3090BB}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4256,7 +4280,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4363,13 +4387,13 @@
         <v>2902</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>168</v>
+        <v>243</v>
       </c>
       <c r="H4" s="7">
         <v>20</v>
@@ -4378,13 +4402,13 @@
         <v>14189</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>235</v>
+        <v>98</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="M4" s="7">
         <v>26</v>
@@ -4393,19 +4417,19 @@
         <v>17091</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
         <v>6</v>
@@ -4414,13 +4438,13 @@
         <v>3907</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="H5" s="7">
         <v>43</v>
@@ -4429,13 +4453,13 @@
         <v>26435</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="M5" s="7">
         <v>49</v>
@@ -4444,19 +4468,19 @@
         <v>30341</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>76</v>
+        <v>256</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" s="7">
         <v>415</v>
@@ -4465,13 +4489,13 @@
         <v>279969</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>248</v>
+        <v>190</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>249</v>
+        <v>118</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>250</v>
+        <v>57</v>
       </c>
       <c r="H6" s="7">
         <v>955</v>
@@ -4480,13 +4504,13 @@
         <v>514357</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="M6" s="7">
         <v>1370</v>
@@ -4495,13 +4519,13 @@
         <v>794328</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4516,13 +4540,13 @@
         <v>286778</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H7" s="7">
         <v>1018</v>
@@ -4531,13 +4555,13 @@
         <v>554981</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M7" s="7">
         <v>1445</v>
@@ -4546,18 +4570,18 @@
         <v>841760</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -4572,10 +4596,10 @@
         <v>12</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -4584,13 +4608,13 @@
         <v>473</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>17</v>
+        <v>266</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -4599,19 +4623,19 @@
         <v>473</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>217</v>
+        <v>268</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" s="7">
         <v>13</v>
@@ -4620,13 +4644,13 @@
         <v>9091</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>149</v>
+        <v>270</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="H9" s="7">
         <v>19</v>
@@ -4635,13 +4659,13 @@
         <v>9161</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>14</v>
+        <v>273</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="M9" s="7">
         <v>32</v>
@@ -4650,19 +4674,19 @@
         <v>18252</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>264</v>
+        <v>275</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>265</v>
+        <v>276</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C10" s="7">
         <v>413</v>
@@ -4671,13 +4695,13 @@
         <v>285475</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>267</v>
+        <v>278</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>268</v>
+        <v>164</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="H10" s="7">
         <v>509</v>
@@ -4686,13 +4710,13 @@
         <v>376788</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>136</v>
+        <v>282</v>
       </c>
       <c r="M10" s="7">
         <v>922</v>
@@ -4701,13 +4725,13 @@
         <v>662263</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>272</v>
+        <v>283</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>273</v>
+        <v>284</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4722,13 +4746,13 @@
         <v>294566</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H11" s="7">
         <v>529</v>
@@ -4737,13 +4761,13 @@
         <v>386422</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M11" s="7">
         <v>955</v>
@@ -4752,18 +4776,18 @@
         <v>680988</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -4778,10 +4802,10 @@
         <v>12</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>274</v>
+        <v>285</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -4793,10 +4817,10 @@
         <v>12</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>275</v>
+        <v>231</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -4808,16 +4832,16 @@
         <v>12</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>276</v>
+        <v>286</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C13" s="7">
         <v>0</v>
@@ -4829,10 +4853,10 @@
         <v>12</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>274</v>
+        <v>285</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -4841,13 +4865,13 @@
         <v>621</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="M13" s="7">
         <v>1</v>
@@ -4856,19 +4880,19 @@
         <v>621</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>280</v>
+        <v>198</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C14" s="7">
         <v>168</v>
@@ -4877,13 +4901,13 @@
         <v>111986</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H14" s="7">
         <v>151</v>
@@ -4892,13 +4916,13 @@
         <v>77624</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>283</v>
+        <v>292</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M14" s="7">
         <v>319</v>
@@ -4907,13 +4931,13 @@
         <v>189610</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4928,13 +4952,13 @@
         <v>111986</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H15" s="7">
         <v>152</v>
@@ -4943,13 +4967,13 @@
         <v>78245</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M15" s="7">
         <v>320</v>
@@ -4958,13 +4982,13 @@
         <v>190231</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4981,13 +5005,13 @@
         <v>2902</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>287</v>
+        <v>296</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="H16" s="7">
         <v>21</v>
@@ -4996,13 +5020,13 @@
         <v>14662</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>96</v>
+        <v>174</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="M16" s="7">
         <v>27</v>
@@ -5011,19 +5035,19 @@
         <v>17564</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>176</v>
+        <v>299</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>70</v>
+        <v>300</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>28</v>
+        <v>301</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" s="7">
         <v>19</v>
@@ -5032,13 +5056,13 @@
         <v>12998</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>291</v>
+        <v>302</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>121</v>
+        <v>303</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>292</v>
+        <v>304</v>
       </c>
       <c r="H17" s="7">
         <v>63</v>
@@ -5047,13 +5071,13 @@
         <v>36217</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>293</v>
+        <v>305</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>294</v>
+        <v>306</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>295</v>
+        <v>123</v>
       </c>
       <c r="M17" s="7">
         <v>82</v>
@@ -5062,19 +5086,19 @@
         <v>49215</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>296</v>
+        <v>307</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>297</v>
+        <v>308</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>298</v>
+        <v>255</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C18" s="7">
         <v>996</v>
@@ -5083,13 +5107,13 @@
         <v>677430</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>299</v>
+        <v>88</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>300</v>
+        <v>309</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="H18" s="7">
         <v>1615</v>
@@ -5098,13 +5122,13 @@
         <v>968770</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>304</v>
+        <v>313</v>
       </c>
       <c r="M18" s="7">
         <v>2611</v>
@@ -5113,13 +5137,13 @@
         <v>1646201</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>307</v>
+        <v>232</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5134,13 +5158,13 @@
         <v>693330</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H19" s="7">
         <v>1699</v>
@@ -5149,13 +5173,13 @@
         <v>1019649</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M19" s="7">
         <v>2720</v>
@@ -5164,18 +5188,18 @@
         <v>1712979</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/Q5410-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Q5410-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FF09A385-5CAE-492E-81E5-607142F42749}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{04DB4388-2178-4C60-822C-F4104878AFE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{66C82478-1D5A-439B-9CF2-1A9E8E5C99FF}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{A2382230-F857-4523-A25F-5B15F232868D}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="312">
   <si>
     <t>Población según si se le escapa la caca (incontinencia) en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
@@ -764,229 +764,217 @@
     <t>Población según si se le escapa la caca (incontinencia) en 2023 (Tasa respuesta: 31,25%)</t>
   </si>
   <si>
-    <t>1,01%</t>
+    <t>1,02%</t>
   </si>
   <si>
     <t>0,38%</t>
   </si>
   <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>96,03%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>93,21%</t>
+  </si>
+  <si>
+    <t>91,37%</t>
+  </si>
+  <si>
+    <t>94,67%</t>
+  </si>
+  <si>
+    <t>94,78%</t>
+  </si>
+  <si>
+    <t>93,31%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>95,01%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>95,94%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
   </si>
   <si>
     <t>1,29%</t>
   </si>
   <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
-  </si>
-  <si>
-    <t>90,51%</t>
-  </si>
-  <si>
-    <t>94,44%</t>
-  </si>
-  <si>
-    <t>94,37%</t>
-  </si>
-  <si>
-    <t>92,56%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>96,03%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>95,01%</t>
-  </si>
-  <si>
-    <t>93,52%</t>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
   </si>
   <si>
     <t>96,71%</t>
   </si>
   <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>94,3%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>95,69%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
   </si>
 </sst>
 </file>
@@ -1398,7 +1386,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{024ADEF6-73A5-4641-A42C-82B21D60C3C8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C99A6CBF-13B9-4063-8ED1-A090A2C230C7}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1636,7 +1624,7 @@
         <v>553</v>
       </c>
       <c r="I6" s="7">
-        <v>564452</v>
+        <v>564451</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>33</v>
@@ -1687,7 +1675,7 @@
         <v>574</v>
       </c>
       <c r="I7" s="7">
-        <v>587750</v>
+        <v>587749</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>39</v>
@@ -2353,7 +2341,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F21D0DE5-AA4D-4558-BBB0-BC327C7C93AD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{607A4E19-A181-4CC3-B394-832D83D1F3F4}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3308,7 +3296,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3BDCB7F-15F0-45AD-8C7A-B7D99D47B214}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ACDCF1A-4AF6-4423-931B-3A7E00532141}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3531,7 +3519,7 @@
         <v>368</v>
       </c>
       <c r="D6" s="7">
-        <v>338038</v>
+        <v>338037</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>185</v>
@@ -3582,7 +3570,7 @@
         <v>386</v>
       </c>
       <c r="D7" s="7">
-        <v>353902</v>
+        <v>353901</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>39</v>
@@ -4263,7 +4251,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F61CD61-FF71-41F0-B66A-4FE07B3090BB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{248B777F-EB06-4448-8F6F-33183A325FC8}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4384,7 +4372,7 @@
         <v>6</v>
       </c>
       <c r="D4" s="7">
-        <v>2902</v>
+        <v>2735</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>241</v>
@@ -4399,31 +4387,31 @@
         <v>20</v>
       </c>
       <c r="I4" s="7">
-        <v>14189</v>
+        <v>11216</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>244</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>98</v>
+        <v>245</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>245</v>
+        <v>173</v>
       </c>
       <c r="M4" s="7">
         <v>26</v>
       </c>
       <c r="N4" s="7">
-        <v>17091</v>
+        <v>13951</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4435,46 +4423,46 @@
         <v>6</v>
       </c>
       <c r="D5" s="7">
-        <v>3907</v>
+        <v>3400</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>250</v>
+        <v>146</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="H5" s="7">
         <v>43</v>
       </c>
       <c r="I5" s="7">
-        <v>26435</v>
+        <v>22772</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>252</v>
+        <v>209</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="M5" s="7">
         <v>49</v>
       </c>
       <c r="N5" s="7">
-        <v>30341</v>
+        <v>26173</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4486,46 +4474,46 @@
         <v>415</v>
       </c>
       <c r="D6" s="7">
-        <v>279969</v>
+        <v>262504</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>190</v>
+        <v>254</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>118</v>
+        <v>255</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>57</v>
+        <v>256</v>
       </c>
       <c r="H6" s="7">
         <v>955</v>
       </c>
       <c r="I6" s="7">
-        <v>514357</v>
+        <v>466247</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>260</v>
       </c>
       <c r="M6" s="7">
         <v>1370</v>
       </c>
       <c r="N6" s="7">
-        <v>794328</v>
+        <v>728751</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4537,7 +4525,7 @@
         <v>427</v>
       </c>
       <c r="D7" s="7">
-        <v>286778</v>
+        <v>268639</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>39</v>
@@ -4552,7 +4540,7 @@
         <v>1018</v>
       </c>
       <c r="I7" s="7">
-        <v>554981</v>
+        <v>500236</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>39</v>
@@ -4567,7 +4555,7 @@
         <v>1445</v>
       </c>
       <c r="N7" s="7">
-        <v>841760</v>
+        <v>768875</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>39</v>
@@ -4599,37 +4587,37 @@
         <v>41</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
       </c>
       <c r="I8" s="7">
-        <v>473</v>
+        <v>442</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
       </c>
       <c r="N8" s="7">
-        <v>473</v>
+        <v>442</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>268</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4641,46 +4629,46 @@
         <v>13</v>
       </c>
       <c r="D9" s="7">
-        <v>9091</v>
+        <v>8347</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>270</v>
+        <v>94</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="H9" s="7">
         <v>19</v>
       </c>
       <c r="I9" s="7">
-        <v>9161</v>
+        <v>8086</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="M9" s="7">
         <v>32</v>
       </c>
       <c r="N9" s="7">
-        <v>18252</v>
+        <v>16434</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4692,46 +4680,46 @@
         <v>413</v>
       </c>
       <c r="D10" s="7">
-        <v>285475</v>
+        <v>264910</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>164</v>
+        <v>276</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="H10" s="7">
         <v>509</v>
       </c>
       <c r="I10" s="7">
-        <v>376788</v>
+        <v>447211</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>280</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>282</v>
       </c>
       <c r="M10" s="7">
         <v>922</v>
       </c>
       <c r="N10" s="7">
-        <v>662263</v>
+        <v>712121</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>89</v>
+        <v>281</v>
       </c>
       <c r="P10" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>283</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4743,7 +4731,7 @@
         <v>426</v>
       </c>
       <c r="D11" s="7">
-        <v>294566</v>
+        <v>273257</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>39</v>
@@ -4758,7 +4746,7 @@
         <v>529</v>
       </c>
       <c r="I11" s="7">
-        <v>386422</v>
+        <v>455739</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>39</v>
@@ -4773,7 +4761,7 @@
         <v>955</v>
       </c>
       <c r="N11" s="7">
-        <v>680988</v>
+        <v>728996</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>39</v>
@@ -4805,7 +4793,7 @@
         <v>41</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -4835,7 +4823,7 @@
         <v>41</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4856,37 +4844,37 @@
         <v>41</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
       </c>
       <c r="I13" s="7">
-        <v>621</v>
+        <v>579</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>287</v>
+        <v>125</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="M13" s="7">
         <v>1</v>
       </c>
       <c r="N13" s="7">
-        <v>621</v>
+        <v>579</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>198</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4898,13 +4886,13 @@
         <v>168</v>
       </c>
       <c r="D14" s="7">
-        <v>111986</v>
+        <v>104986</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>54</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>39</v>
@@ -4913,13 +4901,13 @@
         <v>151</v>
       </c>
       <c r="I14" s="7">
-        <v>77624</v>
+        <v>70746</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>291</v>
+        <v>133</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>54</v>
@@ -4928,13 +4916,13 @@
         <v>319</v>
       </c>
       <c r="N14" s="7">
-        <v>189610</v>
+        <v>175732</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>54</v>
@@ -4949,7 +4937,7 @@
         <v>168</v>
       </c>
       <c r="D15" s="7">
-        <v>111986</v>
+        <v>104986</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>39</v>
@@ -4964,7 +4952,7 @@
         <v>152</v>
       </c>
       <c r="I15" s="7">
-        <v>78245</v>
+        <v>71325</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>39</v>
@@ -4979,7 +4967,7 @@
         <v>320</v>
       </c>
       <c r="N15" s="7">
-        <v>190231</v>
+        <v>176311</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>39</v>
@@ -5002,46 +4990,46 @@
         <v>6</v>
       </c>
       <c r="D16" s="7">
-        <v>2902</v>
+        <v>2735</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="H16" s="7">
         <v>21</v>
       </c>
       <c r="I16" s="7">
-        <v>14662</v>
+        <v>11658</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>174</v>
+        <v>13</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>287</v>
+        <v>265</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>298</v>
+        <v>230</v>
       </c>
       <c r="M16" s="7">
         <v>27</v>
       </c>
       <c r="N16" s="7">
-        <v>17564</v>
+        <v>14393</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5053,46 +5041,46 @@
         <v>19</v>
       </c>
       <c r="D17" s="7">
-        <v>12998</v>
+        <v>11748</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>302</v>
+        <v>212</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>303</v>
+        <v>241</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="H17" s="7">
         <v>63</v>
       </c>
       <c r="I17" s="7">
-        <v>36217</v>
+        <v>31438</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>123</v>
+        <v>301</v>
       </c>
       <c r="M17" s="7">
         <v>82</v>
       </c>
       <c r="N17" s="7">
-        <v>49215</v>
+        <v>43186</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>307</v>
+        <v>147</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>308</v>
+        <v>172</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>255</v>
+        <v>302</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5104,46 +5092,46 @@
         <v>996</v>
       </c>
       <c r="D18" s="7">
-        <v>677430</v>
+        <v>632399</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>88</v>
+        <v>303</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="H18" s="7">
         <v>1615</v>
       </c>
       <c r="I18" s="7">
-        <v>968770</v>
+        <v>984204</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="M18" s="7">
         <v>2611</v>
       </c>
       <c r="N18" s="7">
-        <v>1646201</v>
+        <v>1616602</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>232</v>
+        <v>311</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5155,7 +5143,7 @@
         <v>1021</v>
       </c>
       <c r="D19" s="7">
-        <v>693330</v>
+        <v>646882</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>39</v>
@@ -5170,7 +5158,7 @@
         <v>1699</v>
       </c>
       <c r="I19" s="7">
-        <v>1019649</v>
+        <v>1027300</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>39</v>
@@ -5185,7 +5173,7 @@
         <v>2720</v>
       </c>
       <c r="N19" s="7">
-        <v>1712979</v>
+        <v>1674181</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>39</v>
